--- a/데이터 분석2/dreamnetwork.xlsx
+++ b/데이터 분석2/dreamnetwork.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYU\Desktop\network\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>학생 이름은 무엇입니까?</t>
   </si>
@@ -94,17 +94,16 @@
   </si>
   <si>
     <t>유경환</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -113,18 +112,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,7 +143,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -434,11 +427,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -491,40 +484,40 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -532,40 +525,40 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -573,40 +566,40 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -614,40 +607,40 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -655,40 +648,40 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -696,40 +689,40 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -737,40 +730,40 @@
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -778,40 +771,40 @@
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -819,40 +812,40 @@
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -860,40 +853,40 @@
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -901,40 +894,40 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
         <v>1</v>
       </c>
     </row>
@@ -942,46 +935,41 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>25</v>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
